--- a/data/cutomer/governorate.xlsx
+++ b/data/cutomer/governorate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\C&amp;S Data Pipeline\Processed data\cutomer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAD67B2-C557-42EA-8D45-355B470E9DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64573825-4234-4AB5-96B1-9F5E41465ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,25 +99,25 @@
     <t>مرسى مطروح</t>
   </si>
   <si>
-    <t>القليوبيه</t>
-  </si>
-  <si>
-    <t>الشرقيه</t>
-  </si>
-  <si>
-    <t>الاسكندريه</t>
-  </si>
-  <si>
-    <t>بنى سويف</t>
-  </si>
-  <si>
-    <t>الوادى الجديد</t>
-  </si>
-  <si>
     <t>الأقصر</t>
   </si>
   <si>
-    <t>اسوان</t>
+    <t>الإسكندرية</t>
+  </si>
+  <si>
+    <t>القليوبية</t>
+  </si>
+  <si>
+    <t>الشرقية</t>
+  </si>
+  <si>
+    <t>أسوان</t>
+  </si>
+  <si>
+    <t>بني سويف</t>
+  </si>
+  <si>
+    <t>الوادي الجديد</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B28" si="0">1+B3</f>
@@ -572,7 +572,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -671,7 +671,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -752,7 +752,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -761,7 +761,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -770,7 +770,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
